--- a/R/data_dic/data_description.xlsx
+++ b/R/data_dic/data_description.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audhalbritter/Dropbox/Bergen/PFTC6_Norway/R/data_dic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7E660C-0A65-FF49-8E65-760847195146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD0AF7-910C-F546-B93A-AE06AE643EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="500" windowWidth="27380" windowHeight="20660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46500" yWindow="500" windowWidth="20020" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_description" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>TableID</t>
   </si>
@@ -35,6 +35,162 @@
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>siteID</t>
+  </si>
+  <si>
+    <t>elevation_m_asl</t>
+  </si>
+  <si>
+    <t>blockID</t>
+  </si>
+  <si>
+    <t>warming</t>
+  </si>
+  <si>
+    <t>individual_nr</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>flowering</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Unique leaf ID consisting of 3 letters and 4 numbers</t>
+  </si>
+  <si>
+    <t>defined</t>
+  </si>
+  <si>
+    <t>recorded</t>
+  </si>
+  <si>
+    <t>Site name</t>
+  </si>
+  <si>
+    <t>Elevation of site</t>
+  </si>
+  <si>
+    <t>m a.s.l.</t>
+  </si>
+  <si>
+    <t>Individual number</t>
+  </si>
+  <si>
+    <t>Species name including genus and species</t>
+  </si>
+  <si>
+    <t>identified</t>
+  </si>
+  <si>
+    <t>Plant functional leaf trait including plant height, wet/dry mass, leaf area, leaf thickness, specific leaf area, leaf dry matter content, carbon, nitrogen and phosphorus content, CN and NP ratio, d13C and d15N isotope ratio</t>
+  </si>
+  <si>
+    <t>Leaf trait value</t>
+  </si>
+  <si>
+    <t>cm, g, cm2, mm, cm2/g, percentage, permil</t>
+  </si>
+  <si>
+    <t>Individual was fertile</t>
+  </si>
+  <si>
+    <t>Comment on the data</t>
+  </si>
+  <si>
+    <t>Date of observation</t>
+  </si>
+  <si>
+    <t>Unique blockID combined by first three letters of siteID and number of the block</t>
+  </si>
+  <si>
+    <t>Warming treatment, C = control, W = warming</t>
+  </si>
+  <si>
+    <t>gradient</t>
+  </si>
+  <si>
+    <t>If observation belongs to the elevational gradient</t>
+  </si>
+  <si>
+    <t>Incline</t>
+  </si>
+  <si>
+    <t>ThreeD</t>
+  </si>
+  <si>
+    <t>Unique origin block ID as number 1 to 10</t>
+  </si>
+  <si>
+    <t>turfID</t>
+  </si>
+  <si>
+    <t>Unique ID of vegetation turf as originplotID, warming, nitrogen and grazing treatment and destinationplotID</t>
+  </si>
+  <si>
+    <t>grazing</t>
+  </si>
+  <si>
+    <t>Nlevel</t>
+  </si>
+  <si>
+    <t>Nitrogen level treatment as numeric value from 1 - 10</t>
+  </si>
+  <si>
+    <t>Namount_kg_ha_y</t>
+  </si>
+  <si>
+    <t>origSiteID</t>
+  </si>
+  <si>
+    <t>destSiteID</t>
+  </si>
+  <si>
+    <t>Unique site ID of destination site</t>
+  </si>
+  <si>
+    <t>Unique site ID of origin site</t>
+  </si>
+  <si>
+    <t>Unique destination block ID as number 1 to 10</t>
+  </si>
+  <si>
+    <t>Warming treatment with W for warming or A for ambient</t>
+  </si>
+  <si>
+    <t>Grazing treatment as C for control, and N for natural grazing</t>
+  </si>
+  <si>
+    <t>Amount of nitrogen added between 0 and 150 kg per ha and year</t>
+  </si>
+  <si>
+    <t>kg ha-1 y-1</t>
+  </si>
+  <si>
+    <t>Flagging missing or unreliable data. Can be used to sort unwanted observations.</t>
   </si>
 </sst>
 </file>
@@ -532,9 +688,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -893,68 +1048,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.6640625" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C28" s="3"/>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="2"/>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="2"/>
-    </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D48" s="2"/>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C64" s="2"/>
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="49" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="52" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="57" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
